--- a/Stocks/JKTYRE.xlsx
+++ b/Stocks/JKTYRE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>168.81666666666669</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H104">_xll.TA_EMA(G2:G104,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J104">_xll.TA_EMA(D2:D104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K104">_xll.TA_EMA(E2:E104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N104">_xll.TA_RSI(F2:F104,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V104">_xll.TA_EMA(F2:F104,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W104">_xll.TA_EMA(F2:F104,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y104">_xll.TA_EMA(X2:X104,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>165.50752501459721</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I104" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>UP</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>162.27074621782708</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L104" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>UP</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M104" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>UP</v>
       </c>
       <c r="N67">
         <v>71.408296591852277</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O104" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>UP</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P104" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>UP</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q104" si="25">F67-E67</f>
         <v>7.1999999999999886</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R104" si="26">D67-E67</f>
         <v>7.8499999999999943</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S104" si="27">Q67/R67</f>
         <v>0.9171974522292986</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T104" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U104" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>UP</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>166.15865349454447</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X104" si="30">V67-W67</f>
         <v>-1.1232291859484178</v>
       </c>
       <c r="Y67">
         <v>-1.5453386214046243</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z104" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA104" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>UP</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB104" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC104" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD104" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE104" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF104" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG104" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,2689 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>144.9</v>
+      </c>
+      <c r="D83">
+        <v>146</v>
+      </c>
+      <c r="E83">
+        <v>143</v>
+      </c>
+      <c r="F83">
+        <v>143.25</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>144.08333333333334</v>
+      </c>
+      <c r="H83">
+        <v>143.87566082038904</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J83">
+        <v>149.24768375080828</v>
+      </c>
+      <c r="K83">
+        <v>143.79560221563284</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N83">
+        <v>28.739221292901497</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>0.25</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V83">
+        <v>148.483960467841</v>
+      </c>
+      <c r="W83">
+        <v>154.34948727962851</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-5.8655268117875039</v>
+      </c>
+      <c r="Y83">
+        <v>-4.8242458148542813</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>143.4</v>
+      </c>
+      <c r="D84">
+        <v>146.80000000000001</v>
+      </c>
+      <c r="E84">
+        <v>142.69999999999999</v>
+      </c>
+      <c r="F84">
+        <v>143.4</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>144.29999999999998</v>
+      </c>
+      <c r="H84">
+        <v>144.0878304101945</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>148.70375402840645</v>
+      </c>
+      <c r="K84">
+        <v>143.5521350566033</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N84">
+        <v>30.013561142550575</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>0.70000000000001705</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>4.1000000000000227</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.17073170731707638</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V84">
+        <v>147.70181270355778</v>
+      </c>
+      <c r="W84">
+        <v>153.53841414780416</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-5.8366014442463836</v>
+      </c>
+      <c r="Y84">
+        <v>-5.0267169407327019</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>144.1</v>
+      </c>
+      <c r="D85">
+        <v>146.35</v>
+      </c>
+      <c r="E85">
+        <v>143.5</v>
+      </c>
+      <c r="F85">
+        <v>143.94999999999999</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>144.6</v>
+      </c>
+      <c r="H85">
+        <v>144.34391520509723</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J85">
+        <v>148.18069757764945</v>
+      </c>
+      <c r="K85">
+        <v>143.54054948846922</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N85">
+        <v>35.315293000774268</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>0.44999999999998863</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>2.8499999999999943</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.15789473684210159</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>147.12461074916428</v>
+      </c>
+      <c r="W85">
+        <v>152.82816124796682</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-5.7035504988025423</v>
+      </c>
+      <c r="Y85">
+        <v>-5.16208365234667</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>144.85</v>
+      </c>
+      <c r="D86">
+        <v>148</v>
+      </c>
+      <c r="E86">
+        <v>143</v>
+      </c>
+      <c r="F86">
+        <v>147.80000000000001</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>146.26666666666668</v>
+      </c>
+      <c r="H86">
+        <v>145.30529093588194</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>148.14054256039401</v>
+      </c>
+      <c r="K86">
+        <v>143.42042737992051</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N86">
+        <v>61.099975608362996</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>4.8000000000000114</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.9600000000000023</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>147.22851678775439</v>
+      </c>
+      <c r="W86">
+        <v>152.45570485922855</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-5.2271880714741599</v>
+      </c>
+      <c r="Y86">
+        <v>-5.1751045361721681</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>148</v>
+      </c>
+      <c r="D87">
+        <v>150.30000000000001</v>
+      </c>
+      <c r="E87">
+        <v>147.80000000000001</v>
+      </c>
+      <c r="F87">
+        <v>148.55000000000001</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>148.88333333333335</v>
+      </c>
+      <c r="H87">
+        <v>147.09431213460766</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>148.62042199141757</v>
+      </c>
+      <c r="K87">
+        <v>144.39366573993817</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N87">
+        <v>64.541790600129005</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>0.75</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>2.5</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.3</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>147.43182189733065</v>
+      </c>
+      <c r="W87">
+        <v>152.16639338817458</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>-4.7345714908439334</v>
+      </c>
+      <c r="Y87">
+        <v>-5.0869979271065215</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>148.94999999999999</v>
+      </c>
+      <c r="D88">
+        <v>148.94999999999999</v>
+      </c>
+      <c r="E88">
+        <v>144</v>
+      </c>
+      <c r="F88">
+        <v>146.9</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>146.61666666666667</v>
+      </c>
+      <c r="H88">
+        <v>146.85548940063717</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J88">
+        <v>148.69366154888033</v>
+      </c>
+      <c r="K88">
+        <v>144.30618446439635</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N88">
+        <v>51.911018666950881</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>2.9000000000000057</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>4.9499999999999886</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.5858585858585883</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>147.35000314389518</v>
+      </c>
+      <c r="W88">
+        <v>151.77629017423573</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>-4.4262870303405464</v>
+      </c>
+      <c r="Y88">
+        <v>-4.9548557477533262</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>147</v>
+      </c>
+      <c r="D89">
+        <v>150.80000000000001</v>
+      </c>
+      <c r="E89">
+        <v>146.80000000000001</v>
+      </c>
+      <c r="F89">
+        <v>149.5</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>149.03333333333333</v>
+      </c>
+      <c r="H89">
+        <v>147.94441136698526</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>149.16173676024025</v>
+      </c>
+      <c r="K89">
+        <v>144.86036569453049</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N89">
+        <v>65.290441737116168</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>2.6999999999999886</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.67499999999999716</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>147.68077189098824</v>
+      </c>
+      <c r="W89">
+        <v>151.6076760872553</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>-3.9269041962670599</v>
+      </c>
+      <c r="Y89">
+        <v>-4.7492654374560725</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>148.80000000000001</v>
+      </c>
+      <c r="D90">
+        <v>151.69999999999999</v>
+      </c>
+      <c r="E90">
+        <v>146.94999999999999</v>
+      </c>
+      <c r="F90">
+        <v>149.1</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>149.25</v>
+      </c>
+      <c r="H90">
+        <v>148.59720568349263</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>149.72579525796462</v>
+      </c>
+      <c r="K90">
+        <v>145.3247288735237</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N90">
+        <v>61.974539092023747</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>2.1500000000000057</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>4.75</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.45263157894736961</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>147.89911467699005</v>
+      </c>
+      <c r="W90">
+        <v>151.42192230301416</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>-3.5228076260241039</v>
+      </c>
+      <c r="Y90">
+        <v>-4.5039738751696792</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>150.6</v>
+      </c>
+      <c r="D91">
+        <v>151.5</v>
+      </c>
+      <c r="E91">
+        <v>147.69999999999999</v>
+      </c>
+      <c r="F91">
+        <v>148.94999999999999</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>149.38333333333333</v>
+      </c>
+      <c r="H91">
+        <v>148.99026950841298</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J91">
+        <v>150.12006297841694</v>
+      </c>
+      <c r="K91">
+        <v>145.85256690162953</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N91">
+        <v>60.533456350651491</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>1.25</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>3.8000000000000114</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.32894736842105166</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>148.06078934206852</v>
+      </c>
+      <c r="W91">
+        <v>151.23881694723534</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>-3.1780276051668181</v>
+      </c>
+      <c r="Y91">
+        <v>-4.2387846211691071</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>148.9</v>
+      </c>
+      <c r="D92">
+        <v>149.5</v>
+      </c>
+      <c r="E92">
+        <v>143.9</v>
+      </c>
+      <c r="F92">
+        <v>144.9</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>146.1</v>
+      </c>
+      <c r="H92">
+        <v>147.54513475420649</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>149.98227120543541</v>
+      </c>
+      <c r="K92">
+        <v>145.41866314571186</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N92">
+        <v>33.9164304539851</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>5.5999999999999943</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.17857142857142874</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V92">
+        <v>147.57451405867337</v>
+      </c>
+      <c r="W92">
+        <v>150.76927495114384</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>-3.1947608924704696</v>
+      </c>
+      <c r="Y92">
+        <v>-4.0299798754293796</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>146.9</v>
+      </c>
+      <c r="D93">
+        <v>149</v>
+      </c>
+      <c r="E93">
+        <v>143.05000000000001</v>
+      </c>
+      <c r="F93">
+        <v>146.80000000000001</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>146.28333333333333</v>
+      </c>
+      <c r="H93">
+        <v>146.91423404376991</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J93">
+        <v>149.76398871533866</v>
+      </c>
+      <c r="K93">
+        <v>144.8922935577759</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N93">
+        <v>47.46321288485619</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>3.75</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>5.9499999999999886</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.63025210084033734</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>147.45535804964669</v>
+      </c>
+      <c r="W93">
+        <v>150.47525458439245</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>-3.0198965347457545</v>
+      </c>
+      <c r="Y93">
+        <v>-3.8279632072926546</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>148.1</v>
+      </c>
+      <c r="D94">
+        <v>155.85</v>
+      </c>
+      <c r="E94">
+        <v>147</v>
+      </c>
+      <c r="F94">
+        <v>155</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>152.61666666666667</v>
+      </c>
+      <c r="H94">
+        <v>149.76545035521829</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>151.11643566748563</v>
+      </c>
+      <c r="K94">
+        <v>145.36067276715903</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N94">
+        <v>75.052484287468985</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>8</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>8.8499999999999943</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.90395480225988756</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V94">
+        <v>148.61607219585488</v>
+      </c>
+      <c r="W94">
+        <v>150.81042091147449</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>-2.1943487156196113</v>
+      </c>
+      <c r="Y94">
+        <v>-3.5012403089580459</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>156.4</v>
+      </c>
+      <c r="D95">
+        <v>157.30000000000001</v>
+      </c>
+      <c r="E95">
+        <v>149.19999999999999</v>
+      </c>
+      <c r="F95">
+        <v>150.85</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>152.45000000000002</v>
+      </c>
+      <c r="H95">
+        <v>151.10772517760915</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>152.49056107471105</v>
+      </c>
+      <c r="K95">
+        <v>146.21385659667925</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N95">
+        <v>56.336559226853211</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>1.6500000000000057</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>8.1000000000000227</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.20370370370370383</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>148.9597533964926</v>
+      </c>
+      <c r="W95">
+        <v>150.81335269580973</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>-1.8535992993171249</v>
+      </c>
+      <c r="Y95">
+        <v>-3.1717121070298617</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>151</v>
+      </c>
+      <c r="D96">
+        <v>152.9</v>
+      </c>
+      <c r="E96">
+        <v>149</v>
+      </c>
+      <c r="F96">
+        <v>149.9</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>150.6</v>
+      </c>
+      <c r="H96">
+        <v>150.85386258880459</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>152.58154750255304</v>
+      </c>
+      <c r="K96">
+        <v>146.83299957519498</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N96">
+        <v>52.584340243858449</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>0.90000000000000568</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>3.9000000000000057</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.23076923076923189</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>149.10440672010913</v>
+      </c>
+      <c r="W96">
+        <v>150.74569694056456</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>-1.6412902204554314</v>
+      </c>
+      <c r="Y96">
+        <v>-2.8656277297149755</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>148.9</v>
+      </c>
+      <c r="D97">
+        <v>149.80000000000001</v>
+      </c>
+      <c r="E97">
+        <v>145.1</v>
+      </c>
+      <c r="F97">
+        <v>146.85</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>147.25</v>
+      </c>
+      <c r="H97">
+        <v>149.05193129440229</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J97">
+        <v>151.96342583531904</v>
+      </c>
+      <c r="K97">
+        <v>146.44788855848498</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N97">
+        <v>41.493505555777489</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>1.75</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>4.7000000000000171</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.37234042553191354</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>148.7575749170154</v>
+      </c>
+      <c r="W97">
+        <v>150.45712679681904</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>-1.6995518798036358</v>
+      </c>
+      <c r="Y97">
+        <v>-2.6324125597327077</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>148.25</v>
+      </c>
+      <c r="D98">
+        <v>151</v>
+      </c>
+      <c r="E98">
+        <v>146.5</v>
+      </c>
+      <c r="F98">
+        <v>148.4</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>148.63333333333333</v>
+      </c>
+      <c r="H98">
+        <v>148.8426323138678</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J98">
+        <v>151.74933120524815</v>
+      </c>
+      <c r="K98">
+        <v>146.45946887882164</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N98">
+        <v>48.406197610862876</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>1.9000000000000057</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>4.5</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.4222222222222235</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>148.70256339132072</v>
+      </c>
+      <c r="W98">
+        <v>150.30474703409169</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>-1.6021836427709673</v>
+      </c>
+      <c r="Y98">
+        <v>-2.4263667763403598</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>149</v>
+      </c>
+      <c r="D99">
+        <v>150.65</v>
+      </c>
+      <c r="E99">
+        <v>147.4</v>
+      </c>
+      <c r="F99">
+        <v>147.94999999999999</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>148.66666666666666</v>
+      </c>
+      <c r="H99">
+        <v>148.75464949026724</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J99">
+        <v>151.50503538185967</v>
+      </c>
+      <c r="K99">
+        <v>146.66847579463905</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N99">
+        <v>46.41597595098127</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>0.54999999999998295</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>3.25</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.16923076923076399</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>148.58678440804061</v>
+      </c>
+      <c r="W99">
+        <v>150.13032132786267</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>-1.5435369198220599</v>
+      </c>
+      <c r="Y99">
+        <v>-2.2498008050367</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>156.25</v>
+      </c>
+      <c r="D100">
+        <v>165.35</v>
+      </c>
+      <c r="E100">
+        <v>156.25</v>
+      </c>
+      <c r="F100">
+        <v>158.30000000000001</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>159.96666666666667</v>
+      </c>
+      <c r="H100">
+        <v>154.36065807846694</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J100">
+        <v>154.58169418589085</v>
+      </c>
+      <c r="K100">
+        <v>148.79770339583038</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N100">
+        <v>75.443340783225082</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>2.0500000000000114</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>9.0999999999999943</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.22527472527472667</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>150.08112526834205</v>
+      </c>
+      <c r="W100">
+        <v>150.73548271098394</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>-0.65435744264189566</v>
+      </c>
+      <c r="Y100">
+        <v>-1.9307121325577392</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>158.6</v>
+      </c>
+      <c r="D101">
+        <v>158.80000000000001</v>
+      </c>
+      <c r="E101">
+        <v>152.69999999999999</v>
+      </c>
+      <c r="F101">
+        <v>156</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>155.83333333333334</v>
+      </c>
+      <c r="H101">
+        <v>155.09699570590016</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J101">
+        <v>155.5190954779151</v>
+      </c>
+      <c r="K101">
+        <v>149.66488041897918</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N101">
+        <v>65.575712056502027</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>3.3000000000000114</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>6.1000000000000227</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.54098360655737687</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>150.99172138090481</v>
+      </c>
+      <c r="W101">
+        <v>151.12544695461477</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>-0.13372557370996674</v>
+      </c>
+      <c r="Y101">
+        <v>-1.5713148207881846</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>157</v>
+      </c>
+      <c r="D102">
+        <v>160</v>
+      </c>
+      <c r="E102">
+        <v>152.05000000000001</v>
+      </c>
+      <c r="F102">
+        <v>156</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>156.01666666666668</v>
+      </c>
+      <c r="H102">
+        <v>155.55683118628343</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J102">
+        <v>156.51485203837842</v>
+      </c>
+      <c r="K102">
+        <v>150.19490699253936</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N102">
+        <v>65.575712056502027</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>3.9499999999999886</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>7.9499999999999886</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.49685534591194896</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V102">
+        <v>151.76222578384252</v>
+      </c>
+      <c r="W102">
+        <v>151.48652495797666</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>0.27570082586586864</v>
+      </c>
+      <c r="Y102">
+        <v>-1.201911691457374</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>156</v>
+      </c>
+      <c r="D103">
+        <v>157.69999999999999</v>
+      </c>
+      <c r="E103">
+        <v>148.5</v>
+      </c>
+      <c r="F103">
+        <v>149.69999999999999</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>151.96666666666667</v>
+      </c>
+      <c r="H103">
+        <v>153.76174892647504</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>156.77821825207209</v>
+      </c>
+      <c r="K103">
+        <v>149.81826099419729</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>42.041389905028531</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>1.1999999999999886</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>9.1999999999999886</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.13043478260869457</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>151.44496027863599</v>
+      </c>
+      <c r="W103">
+        <v>151.3541897759043</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>9.077050273168652E-2</v>
+      </c>
+      <c r="Y103">
+        <v>-0.94337525261956179</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>149</v>
+      </c>
+      <c r="D104">
+        <v>151.9</v>
+      </c>
+      <c r="E104">
+        <v>147.05000000000001</v>
+      </c>
+      <c r="F104">
+        <v>148</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>148.98333333333335</v>
+      </c>
+      <c r="H104">
+        <v>151.37254112990419</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>155.69416975161164</v>
+      </c>
+      <c r="K104">
+        <v>149.20309188437568</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>37.501682928295573</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>0.94999999999998863</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>4.8499999999999943</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.1958762886597917</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V104">
+        <v>150.91496638961507</v>
+      </c>
+      <c r="W104">
+        <v>151.10573127398547</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>-0.19076488437039529</v>
+      </c>
+      <c r="Y104">
+        <v>-0.79285317896972851</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
